--- a/genshin/432871122203948076_2020-09-09_12-01-02.xlsx
+++ b/genshin/432871122203948076_2020-09-09_12-01-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:48:04</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.11671296296</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3805290322</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-12-11 19:01:35</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44176.7927662037</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-10-11 21:50:02</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44115.90974537037</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -756,10 +766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-23 19:27:46</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44097.81094907408</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -831,10 +839,8 @@
           <t>3472438075</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-21 13:13:50</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44095.55127314815</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -902,10 +908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-20 06:52:37</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44094.28653935185</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -973,10 +977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-19 01:29:41</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44093.06228009259</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1040,10 +1042,8 @@
           <t>3491949774</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-15 19:04:39</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44089.79489583334</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -1107,10 +1107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-15 01:26:43</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44089.06021990741</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1178,10 +1176,8 @@
           <t>3492800930</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:12:46</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44088.9255324074</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1245,10 +1241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:57:45</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44088.8734375</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1312,10 +1306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:33:51</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44088.85684027777</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1375,10 +1367,8 @@
           <t>3491949774</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:31:41</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44088.85533564815</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1454,10 +1444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:47:52</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44088.8249074074</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1521,10 +1509,8 @@
           <t>3491949774</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-14 18:22:39</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44088.76572916667</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1588,10 +1574,8 @@
           <t>3472438075</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:52:03</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44088.74447916666</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1655,10 +1639,8 @@
           <t>3491398849</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:40:31</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44088.61146990741</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1732,10 +1714,8 @@
           <t>3491405604</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:40:15</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44088.61128472222</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1809,10 +1789,8 @@
           <t>3491371502</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:34:19</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44088.60716435185</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1880,10 +1858,8 @@
           <t>3491371502</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:24:16</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44088.60018518518</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1951,10 +1927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:15:22</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44088.59400462963</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2026,10 +2000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:10:42</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44088.59076388889</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2097,10 +2069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:29:08</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44088.02023148148</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2176,10 +2146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-13 19:13:37</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44087.80112268519</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2251,10 +2219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-13 14:38:53</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44087.61033564815</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2322,10 +2288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-13 13:17:42</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44087.55395833333</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2401,10 +2365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-13 12:54:36</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44087.53791666667</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2481,10 +2443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-13 12:27:37</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44087.51917824074</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2548,10 +2508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-13 11:28:20</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44087.47800925926</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2611,10 +2569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-13 10:49:10</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44087.45081018518</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2690,10 +2646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-13 10:48:18</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44087.45020833334</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2769,10 +2723,8 @@
           <t>3486317300</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-13 02:25:25</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44087.1009837963</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2836,10 +2788,8 @@
           <t>3485648051</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:49:45</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44086.95121527778</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2903,10 +2853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:52:44</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44086.91162037037</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2978,10 +2926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:24:46</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44086.76719907407</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3053,10 +2999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:22:18</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44086.76548611111</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3120,10 +3064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:04:28</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44086.75310185185</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3199,10 +3141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:16:22</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44086.59469907408</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3266,10 +3206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:48:25</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44086.57528935185</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3333,10 +3271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-12 07:18:31</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44086.30452546296</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3411,10 +3347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-11 23:04:59</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44085.96179398148</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3490,10 +3424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-11 22:41:06</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44085.94520833333</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3561,10 +3493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-11 19:08:13</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44085.79737268519</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3628,10 +3558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-11 17:23:40</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44085.72476851852</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3699,10 +3627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-11 10:54:09</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44085.45427083333</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3770,10 +3696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-11 08:35:11</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44085.35776620371</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3849,10 +3773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-11 08:27:06</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44085.35215277778</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3916,10 +3838,8 @@
           <t>3478375920</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-11 07:47:03</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44085.32434027778</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3992,10 +3912,8 @@
           <t>3478375920</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-11 06:23:44</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44085.26648148148</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4071,10 +3989,8 @@
           <t>3478375920</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-11 01:26:54</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44085.06034722222</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4147,10 +4063,8 @@
           <t>3472358982</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-11 01:25:51</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44085.05961805556</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4223,10 +4137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-11 00:03:14</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44085.00224537037</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4298,10 +4210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-10 23:43:28</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44084.98851851852</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4365,10 +4275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-10 23:19:53</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44084.9721412037</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4432,10 +4340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-10 23:16:50</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44084.97002314815</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4499,10 +4405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-10 22:54:16</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44084.95435185185</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4566,10 +4470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-10 21:32:14</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44084.89738425926</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4645,10 +4547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-10 21:32:14</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44084.89738425926</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4719,10 +4619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-10 20:32:05</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44084.85561342593</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4798,10 +4696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-10 19:25:13</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44084.80917824074</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4877,10 +4773,8 @@
           <t>3472307662</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-10 17:42:37</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44084.73792824074</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4944,10 +4838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:28:59</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44084.68679398148</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5019,10 +4911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-10 15:05:41</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44084.62894675926</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5094,10 +4984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:52:54</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44084.62006944444</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5169,10 +5057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:29:44</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44084.60398148148</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5249,10 +5135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:26:29</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44084.60172453704</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5320,10 +5204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:22:44</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44084.59912037037</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5391,10 +5273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-10 13:57:28</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44084.58157407407</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5462,10 +5342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-10 13:35:12</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44084.56611111111</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5533,10 +5411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-10 13:20:51</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44084.55614583333</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5600,10 +5476,8 @@
           <t>3476003825</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-10 13:20:33</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44084.5559375</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5667,10 +5541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-10 12:49:59</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44084.53471064815</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5746,10 +5618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-10 12:33:46</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44084.52344907408</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5817,10 +5687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-10 11:58:40</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44084.49907407408</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5892,10 +5760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-10 11:45:47</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44084.49012731481</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5967,10 +5833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-10 11:30:36</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44084.47958333333</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6042,10 +5906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-10 11:21:19</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44084.47313657407</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6121,10 +5983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-10 10:11:32</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44084.42467592593</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6200,10 +6060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-10 10:08:10</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44084.42233796296</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6271,10 +6129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-10 10:07:25</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44084.42181712963</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6342,10 +6198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-10 09:28:14</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44084.39460648148</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6413,10 +6267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-10 09:22:14</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44084.39043981482</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6484,10 +6336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-10 08:49:36</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44084.36777777778</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6551,10 +6401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-10 07:24:40</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44084.3087962963</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6626,10 +6474,8 @@
           <t>3472605123</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-10 06:53:12</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44084.28694444444</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6705,10 +6551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-10 05:05:53</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44084.21241898148</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6776,10 +6620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-10 01:00:29</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44084.04200231482</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6855,10 +6697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-10 00:59:00</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44084.04097222222</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6922,10 +6762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-10 00:44:49</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44084.03112268518</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6989,10 +6827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-09 23:52:14</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44083.99460648148</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7056,10 +6892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-09 23:43:31</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44083.98855324074</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7123,10 +6957,8 @@
           <t>3472605123</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-09 23:16:53</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44083.97005787037</v>
       </c>
       <c r="I93" t="n">
         <v>3</v>
@@ -7190,10 +7022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-09 23:14:02</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44083.96807870371</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7257,10 +7087,8 @@
           <t>3472605123</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-09 23:13:10</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44083.96747685185</v>
       </c>
       <c r="I95" t="n">
         <v>3</v>
@@ -7336,10 +7164,8 @@
           <t>3472605123</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-09 23:00:39</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44083.95878472222</v>
       </c>
       <c r="I96" t="n">
         <v>5</v>
@@ -7403,10 +7229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-09 23:00:36</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44083.95875</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7470,10 +7294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-09 22:58:01</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44083.95695601852</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7533,10 +7355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-09 22:57:01</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44083.95626157407</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7604,10 +7424,8 @@
           <t>3474383337</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-09 22:48:32</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44083.95037037037</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7675,10 +7493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-09 22:45:21</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44083.94815972223</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7746,10 +7562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-09 22:37:41</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44083.94283564815</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7817,10 +7631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-09 22:07:31</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44083.92188657408</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7892,10 +7704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-09 22:03:44</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44083.91925925926</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7967,10 +7777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:59:35</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44083.91637731482</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8042,10 +7850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:50:56</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44083.91037037037</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8113,10 +7919,8 @@
           <t>3474106291</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:43:32</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44083.90523148148</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8184,10 +7988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:42:38</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44083.90460648148</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8247,10 +8049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:42:21</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44083.90440972222</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8326,10 +8126,8 @@
           <t>3474100335</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:39:48</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44083.90263888889</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8405,10 +8203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:29:24</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44083.89541666667</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8476,10 +8272,8 @@
           <t>3473953629</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:04:36</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44083.87819444444</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8543,10 +8337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-09 20:47:22</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44083.86622685185</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8614,10 +8406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-09 20:12:22</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44083.8419212963</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8677,10 +8467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-09 20:03:30</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44083.83576388889</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8744,10 +8532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-09 20:01:39</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44083.83447916667</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8807,10 +8593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-09 19:16:48</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44083.80333333334</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8874,10 +8658,8 @@
           <t>3473532870</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-09 19:15:41</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44083.80255787037</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8941,10 +8723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-09 19:15:00</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44083.80208333334</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9012,10 +8792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-09 19:02:00</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44083.79305555556</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9079,10 +8857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:48:15</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44083.78350694444</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9158,10 +8934,8 @@
           <t>3473404508</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:44:26</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44083.78085648148</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9237,10 +9011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:42:51</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44083.77975694444</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9312,10 +9084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:37:06</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44083.77576388889</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9387,10 +9157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:34:51</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44083.77420138889</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9458,10 +9226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:34:34</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44083.77400462963</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9533,10 +9299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:34:30</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44083.77395833333</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9612,10 +9376,8 @@
           <t>3472438075</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:32:41</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44083.77269675926</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9683,10 +9445,8 @@
           <t>3473362084</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:32:23</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44083.77248842592</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9754,10 +9514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:29:24</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44083.77041666667</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9824,10 +9582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:29:22</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44083.77039351852</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9903,10 +9659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:21:15</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44083.76475694445</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9970,10 +9724,8 @@
           <t>3473315317</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:18:35</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44083.76290509259</v>
       </c>
       <c r="I133" t="n">
         <v>7</v>
@@ -10041,10 +9793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:17:59</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44083.76248842593</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10120,10 +9870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:17:41</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44083.76228009259</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10195,10 +9943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:13:10</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44083.75914351852</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10266,10 +10012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:12:44</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44083.75884259259</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10337,10 +10081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:12:05</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44083.7583912037</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10412,10 +10154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:11:51</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44083.75822916667</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10483,10 +10223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:07:45</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44083.75538194444</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10558,10 +10296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:06:41</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44083.7546412037</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10625,10 +10361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:59:41</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44083.74978009259</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10692,10 +10426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:57:58</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44083.74858796296</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10759,10 +10491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:57:51</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44083.74850694444</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10834,10 +10564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:50:16</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44083.74324074074</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10901,10 +10629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:45:02</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44083.73960648148</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10980,10 +10706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:42:58</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44083.7381712963</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11055,10 +10779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:41:02</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44083.7368287037</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11126,10 +10848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:38:55</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44083.73535879629</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11208,10 +10928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:38:38</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44083.73516203704</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11279,10 +10997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:37:59</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44083.73471064815</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11351,10 +11067,8 @@
           <t>3473036383</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:37:51</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44083.73461805555</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11430,10 +11144,8 @@
           <t>3472307662</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:32:08</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44083.73064814815</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11501,10 +11213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:30:28</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44083.72949074074</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11572,10 +11282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:29:19</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44083.72869212963</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11643,10 +11351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:28:26</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44083.7280787037</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11714,10 +11420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:24:38</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44083.72543981481</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11785,10 +11489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:24:35</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44083.72540509259</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11860,10 +11562,8 @@
           <t>3472297214</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:22:22</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44083.72386574074</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11931,10 +11631,8 @@
           <t>3473036383</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:21:23</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44083.72318287037</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12002,10 +11700,8 @@
           <t>3472297214</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:20:07</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44083.72230324074</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12073,10 +11769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:18:53</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44083.72144675926</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12140,10 +11834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:12:00</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44083.71666666667</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12207,10 +11899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:11:04</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44083.71601851852</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12274,10 +11964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:08:39</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44083.71434027778</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12341,10 +12029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:07:01</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44083.71320601852</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12412,10 +12098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:06:28</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44083.71282407407</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12479,10 +12163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:50:59</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44083.70207175926</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12554,10 +12236,8 @@
           <t>3473036383</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:50:37</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44083.70181712963</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12633,10 +12313,8 @@
           <t>3472297214</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:49:06</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44083.70076388889</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12704,10 +12382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:47:59</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44083.69998842593</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12775,10 +12451,8 @@
           <t>3472303066</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:47:37</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44083.6997337963</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12846,10 +12520,8 @@
           <t>3472297214</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:47:15</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44083.69947916667</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12917,10 +12589,8 @@
           <t>3472289018</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:46:51</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44083.69920138889</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -12988,10 +12658,8 @@
           <t>3472291925</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:46:37</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44083.69903935185</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13059,10 +12727,8 @@
           <t>3472279711</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:46:15</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44083.69878472222</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13130,10 +12796,8 @@
           <t>3472274054</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:45:38</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44083.69835648148</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13201,10 +12865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:37:46</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44083.69289351852</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13280,10 +12942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:36:42</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44083.69215277778</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13351,10 +13011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:35:06</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44083.69104166667</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13422,10 +13080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:35:05</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44083.6910300926</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13501,10 +13157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:34:42</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44083.69076388889</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13572,10 +13226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:33:36</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44083.69</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13643,10 +13295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:31:47</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44083.68873842592</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13714,10 +13364,8 @@
           <t>3472278680</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:31:16</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44083.68837962963</v>
       </c>
       <c r="I185" t="n">
         <v>2</v>
@@ -13785,10 +13433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:29:07</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44083.68688657408</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13864,10 +13510,8 @@
           <t>3472278533</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:28:53</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44083.68672453704</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -13935,10 +13579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:25:07</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44083.6841087963</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14006,10 +13648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:24:55</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44083.6839699074</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14073,10 +13713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:14:34</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44083.6767824074</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14148,10 +13786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:13:39</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44083.67614583333</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14215,10 +13851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:13:20</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44083.67592592593</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14286,10 +13920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:08:56</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44083.67287037037</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14365,10 +13997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:07:52</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44083.67212962963</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14440,10 +14070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:07:52</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44083.67212962963</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14511,10 +14139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:07:38</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44083.67196759259</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14578,10 +14204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:03:39</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44083.66920138889</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14657,10 +14281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:02:08</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44083.66814814815</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14728,10 +14350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:58:57</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44083.6659375</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14803,10 +14423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:58:51</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44083.66586805556</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14870,10 +14488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:56:29</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44083.66422453704</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -14949,10 +14565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:54:32</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44083.66287037037</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15028,10 +14642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:50:00</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44083.65972222222</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15099,10 +14711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:45:44</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44083.65675925926</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15178,10 +14788,8 @@
           <t>3472873230</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:45:16</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44083.65643518518</v>
       </c>
       <c r="I205" t="n">
         <v>2</v>
@@ -15249,10 +14857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:34:13</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44083.64876157408</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15320,10 +14926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:29:30</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44083.64548611111</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15395,10 +14999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:28:35</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44083.64484953704</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15462,10 +15064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:27:54</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44083.644375</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15537,10 +15137,8 @@
           <t>3472307662</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:27:52</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44083.64435185185</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15608,10 +15206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:22:15</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44083.64045138889</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15683,10 +15279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:21:18</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44083.63979166667</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15750,10 +15344,8 @@
           <t>3472269903</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:17:51</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44083.63739583334</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15821,10 +15413,8 @@
           <t>3472635589</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:17:36</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44083.63722222222</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15900,10 +15490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:16:34</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44083.63650462963</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -15975,10 +15563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:13:25</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44083.63431712963</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16042,10 +15628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:11:27</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44083.63295138889</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16109,10 +15693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:10:54</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44083.63256944445</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16176,10 +15758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:10:10</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44083.63206018518</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16255,10 +15835,8 @@
           <t>3472467835</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:06:21</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44083.62940972222</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16326,10 +15904,8 @@
           <t>3472324316</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:05:56</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44083.62912037037</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16397,10 +15973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:04:31</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44083.62813657407</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16468,10 +16042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:03:30</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44083.62743055556</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16547,10 +16119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:03:17</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44083.62728009259</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16627,10 +16197,8 @@
           <t>3472284291</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:02:41</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44083.62686342592</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16698,10 +16266,8 @@
           <t>3472290518</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:02:23</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44083.62665509259</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16769,10 +16335,8 @@
           <t>3472274123</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:59:21</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44083.62454861111</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16840,10 +16404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:55:05</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44083.62158564815</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16911,10 +16473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:52:34</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44083.61983796296</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -16986,10 +16546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:51:00</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44083.61875</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17057,10 +16615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:49:19</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44083.61758101852</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17132,10 +16688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:46:55</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44083.61591435185</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17207,10 +16761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:45:39</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44083.61503472222</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17278,10 +16830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:45:16</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44083.61476851852</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17349,10 +16899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:44:02</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44083.61391203704</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17424,10 +16972,8 @@
           <t>3472619000</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:41:18</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44083.61201388889</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17495,10 +17041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:41:05</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44083.61186342593</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17570,10 +17114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:39:05</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44083.61047453704</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17649,10 +17191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:35:17</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44083.60783564814</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17720,10 +17260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:30:23</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44083.60443287037</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17791,10 +17329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:29:21</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44083.60371527778</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17862,10 +17398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:24:09</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44083.60010416667</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -17941,10 +17475,8 @@
           <t>3472438075</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:22:31</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44083.59896990741</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18016,10 +17548,8 @@
           <t>3472336470</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:20:52</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44083.59782407407</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18095,10 +17625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:17:38</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44083.5955787037</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18170,10 +17698,8 @@
           <t>3472619000</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:17:33</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44083.59552083333</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18237,10 +17763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:17:03</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44083.59517361111</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18308,10 +17832,8 @@
           <t>3472672621</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:16:07</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44083.59452546296</v>
       </c>
       <c r="I248" t="n">
         <v>12</v>
@@ -18387,10 +17909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:13:08</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44083.59245370371</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18466,10 +17986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:12:44</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44083.59217592593</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18533,10 +18051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:10:51</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44083.59086805556</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18612,10 +18128,8 @@
           <t>3472658279</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:10:27</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44083.59059027778</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18683,10 +18197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:10:07</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44083.5903587963</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18758,10 +18270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:09:45</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44083.59010416667</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18833,10 +18343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:08:50</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44083.5894675926</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18896,10 +18404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:08:07</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44083.58896990741</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18967,10 +18473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:08:02</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44083.58891203703</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19046,10 +18550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:07:00</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44083.58819444444</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19109,10 +18611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:05:59</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44083.58748842592</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19180,10 +18680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:03:58</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44083.58608796296</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19247,10 +18745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:03:39</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44083.58586805555</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19318,10 +18814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:01:38</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44083.58446759259</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19385,10 +18879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:01:35</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44083.58443287037</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19456,10 +18948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:58:56</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44083.58259259259</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19523,10 +19013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:58:08</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44083.58203703703</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19598,10 +19086,8 @@
           <t>3472635589</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:57:26</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44083.58155092593</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19669,10 +19155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:57:00</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44083.58125</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19740,10 +19224,8 @@
           <t>3472619000</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:55:02</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44083.57988425926</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19811,10 +19293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:54:03</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44083.57920138889</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19890,10 +19370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:51:54</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44083.57770833333</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -19961,10 +19439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:50:13</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44083.57653935185</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20028,10 +19504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:48:53</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44083.57561342593</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20103,10 +19577,8 @@
           <t>3472361746</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:48:04</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44083.5750462963</v>
       </c>
       <c r="I273" t="n">
         <v>12</v>
@@ -20178,10 +19650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:47:47</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44083.57484953704</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20250,10 +19720,8 @@
           <t>3472603052</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:47:38</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44083.57474537037</v>
       </c>
       <c r="I275" t="n">
         <v>18</v>
@@ -20321,10 +19789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:45:06</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44083.57298611111</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20392,10 +19858,8 @@
           <t>3472605123</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:45:03</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44083.57295138889</v>
       </c>
       <c r="I277" t="n">
         <v>12</v>
@@ -20459,10 +19923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:43:51</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44083.57211805556</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20530,10 +19992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:42:48</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44083.57138888889</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20601,10 +20061,8 @@
           <t>3472336470</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:42:19</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44083.57105324074</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20672,10 +20130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:41:34</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44083.57053240741</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20743,10 +20199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:40:43</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44083.56994212963</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20822,10 +20276,8 @@
           <t>3472438075</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:39:39</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44083.56920138889</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -20889,10 +20341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:39:36</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44083.56916666667</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -20957,10 +20407,8 @@
           <t>3472336470</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:38:29</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44083.56839120371</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21036,10 +20484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:37:35</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44083.56776620371</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21107,10 +20553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:37:05</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44083.56741898148</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21178,10 +20622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:36:13</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44083.56681712963</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21249,10 +20691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:35:25</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44083.56626157407</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21316,10 +20756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:33:54</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44083.56520833333</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21387,10 +20825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:33:52</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44083.56518518519</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21462,10 +20898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:33:11</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44083.56471064815</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21525,10 +20959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:33:11</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44083.56471064815</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21596,10 +21028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:32:21</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44083.56413194445</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21663,10 +21093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:31:44</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44083.5637037037</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21730,10 +21158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:31:31</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44083.56355324074</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21797,10 +21223,8 @@
           <t>3472324104</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:31:24</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44083.56347222222</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -21876,10 +21300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:31:00</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44083.56319444445</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -21948,10 +21370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:30:54</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44083.563125</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22015,10 +21435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:28:07</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44083.56119212963</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22086,10 +21504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:27:46</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44083.56094907408</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22157,10 +21573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:27:44</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44083.56092592593</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22228,10 +21642,8 @@
           <t>3472357047</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:27:34</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44083.56081018518</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22299,10 +21711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:27:15</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44083.56059027778</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22370,10 +21780,8 @@
           <t>3472548318</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:26:46</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44083.56025462963</v>
       </c>
       <c r="I305" t="n">
         <v>2</v>
@@ -22441,10 +21849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:26:33</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44083.56010416667</v>
       </c>
       <c r="I306" t="n">
         <v>6</v>
@@ -22508,10 +21914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:24:58</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44083.55900462963</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22579,10 +21983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:24:14</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44083.55849537037</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22646,10 +22048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:22:46</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44083.55747685185</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22721,10 +22121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:22:24</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44083.55722222223</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22788,10 +22186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:22:11</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44083.55707175926</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -22859,10 +22255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:21:50</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44083.5568287037</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -22922,10 +22316,8 @@
           <t>3472480364</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:21:49</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44083.55681712963</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -22993,10 +22385,8 @@
           <t>3472355984</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:21:34</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44083.55664351852</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23064,10 +22454,8 @@
           <t>3472361319</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:21:29</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44083.55658564815</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23135,10 +22523,8 @@
           <t>3472383090</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:21:16</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44083.55643518519</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23206,10 +22592,8 @@
           <t>3472416448</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:21:12</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44083.55638888889</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23277,10 +22661,8 @@
           <t>3472524750</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:21:10</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44083.55636574074</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23344,10 +22726,8 @@
           <t>3472382017</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:20:58</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44083.55622685186</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23415,10 +22795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:20:55</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44083.55619212963</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23486,10 +22864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:20:31</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44083.55591435185</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23565,10 +22941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:20:24</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44083.55583333333</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23632,10 +23006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:20:14</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44083.55571759259</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23699,10 +23071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:20:07</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44083.55563657408</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -23762,10 +23132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:18:34</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44083.55456018518</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -23841,10 +23209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:18:07</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44083.55424768518</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -23904,10 +23270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:15:33</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44083.55246527777</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -23975,10 +23339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:14:55</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44083.55202546297</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24054,10 +23416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:14:28</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44083.55171296297</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24121,10 +23481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:14:06</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44083.55145833334</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24202,10 +23560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:10:56</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44083.54925925926</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24281,10 +23637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:09:08</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44083.54800925926</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24348,10 +23702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:08:09</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44083.54732638889</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24415,10 +23767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:07:29</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44083.54686342592</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24486,10 +23836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:07:00</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44083.54652777778</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24565,10 +23913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:06:41</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44083.54630787037</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24632,10 +23978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:05:58</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44083.54581018518</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24707,10 +24051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:05:48</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44083.54569444444</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24774,10 +24116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:05:37</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44083.54556712963</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -24845,10 +24185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:05:00</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44083.54513888889</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -24908,10 +24246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:04:28</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44083.54476851852</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -24987,10 +24323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:04:27</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44083.54475694444</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25062,10 +24396,8 @@
           <t>3472476611</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:03:48</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44083.54430555556</v>
       </c>
       <c r="I343" t="n">
         <v>3</v>
@@ -25141,10 +24473,8 @@
           <t>3472474976</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:03:35</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44083.54415509259</v>
       </c>
       <c r="I344" t="n">
         <v>3</v>
@@ -25220,10 +24550,8 @@
           <t>3472480364</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:02:58</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44083.54372685185</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25299,10 +24627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:02:31</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44083.54341435185</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25378,10 +24704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:02:22</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44083.54331018519</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25449,10 +24773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:01:52</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44083.54296296297</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25520,10 +24842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:01:44</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44083.54287037037</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25587,10 +24907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:01:43</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44083.5428587963</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25658,10 +24976,8 @@
           <t>3472438075</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:01:23</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44083.54262731481</v>
       </c>
       <c r="I351" t="n">
         <v>3</v>
@@ -25729,10 +25045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:01:06</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44083.54243055556</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -25792,10 +25106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:00:48</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44083.54222222222</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -25859,10 +25171,8 @@
           <t>3472467835</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:00:37</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44083.54209490741</v>
       </c>
       <c r="I354" t="n">
         <v>4</v>
@@ -25938,10 +25248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:00:35</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44083.54207175926</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26011,10 +25319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:00:19</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44083.54188657407</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26090,10 +25396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:00:00</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44083.54166666666</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26157,10 +25461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:59:57</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44083.54163194444</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26224,10 +25526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:59:29</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44083.54130787037</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26303,10 +25603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:59:19</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44083.54119212963</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26378,10 +25676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:59:01</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44083.54098379629</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26449,10 +25745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:58:48</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44083.54083333333</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26516,10 +25810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:58:45</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44083.54079861111</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26591,10 +25883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:58:44</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44083.54078703704</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26662,10 +25952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:58:37</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44083.54070601852</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26741,10 +26029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:58:10</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44083.54039351852</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -26820,10 +26106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:58:07</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44083.54035879629</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -26887,10 +26171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:57:58</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44083.54025462963</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -26966,10 +26248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:57:43</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44083.54008101852</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27045,10 +26325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:57:41</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44083.54005787037</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27108,10 +26386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:56:51</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44083.53947916667</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27187,10 +26463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:56:50</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44083.53946759259</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27254,10 +26528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:56:09</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44083.53899305555</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27325,10 +26597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:56:00</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44083.53888888889</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27396,10 +26666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:54:22</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44083.53775462963</v>
       </c>
       <c r="I375" t="n">
         <v>1</v>
@@ -27467,10 +26735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:53:54</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44083.53743055555</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27530,10 +26796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:53:45</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44083.53732638889</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27609,10 +26873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:53:37</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44083.5372337963</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27688,10 +26950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:53:20</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44083.53703703704</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27763,10 +27023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:52:41</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44083.53658564815</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -27847,10 +27105,8 @@
           <t>3472438075</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:52:06</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44083.53618055556</v>
       </c>
       <c r="I381" t="n">
         <v>42</v>
@@ -27926,10 +27182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:51:58</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44083.53608796297</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28003,10 +27257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:51:49</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44083.5359837963</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28074,10 +27326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:51:30</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44083.53576388889</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28146,10 +27396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:50:44</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44083.53523148148</v>
       </c>
       <c r="I385" t="n">
         <v>6</v>
@@ -28221,10 +27469,8 @@
           <t>3472435518</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:49:56</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44083.53467592593</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28292,10 +27538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:49:51</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44083.53461805556</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28363,10 +27607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:49:48</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44083.53458333333</v>
       </c>
       <c r="I388" t="n">
         <v>2</v>
@@ -28442,10 +27684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:49:45</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44083.53454861111</v>
       </c>
       <c r="I389" t="n">
         <v>2</v>
@@ -28509,10 +27749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:49:38</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44083.5344675926</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28576,10 +27814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:49:32</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44083.53439814815</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28652,10 +27888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:49:05</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44083.53408564815</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28731,10 +27965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:48:16</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44083.53351851852</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -28802,10 +28034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:48:15</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44083.53350694444</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -28869,10 +28099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:48:09</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44083.5334375</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -28944,10 +28172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:47:57</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44083.53329861111</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -29019,10 +28245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:47:46</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44083.53317129629</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29086,10 +28310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:47:29</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44083.53297453704</v>
       </c>
       <c r="I398" t="n">
         <v>3</v>
@@ -29157,10 +28379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:47:29</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44083.53297453704</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29232,10 +28452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:47:05</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44083.53269675926</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29303,10 +28521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:46:56</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44083.53259259259</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>
@@ -29370,10 +28586,8 @@
           <t>3472358982</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:46:50</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44083.53252314815</v>
       </c>
       <c r="I402" t="n">
         <v>4</v>
@@ -29441,10 +28655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:46:39</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44083.53239583333</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29516,10 +28728,8 @@
           <t>3472416448</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:46:26</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44083.53224537037</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -29587,10 +28797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:46:12</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44083.53208333333</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29654,10 +28862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:45:58</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44083.53192129629</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29725,10 +28931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:45:36</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44083.53166666667</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -29796,10 +29000,8 @@
           <t>3472303066</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:45:09</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44083.53135416667</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -29867,10 +29069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:45:05</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44083.53130787037</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -29934,10 +29134,8 @@
           <t>3472379993</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:44:45</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44083.53107638889</v>
       </c>
       <c r="I410" t="n">
         <v>1</v>
@@ -30013,10 +29211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:44:22</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44083.53081018518</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30089,10 +29285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:43:25</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44083.53015046296</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30160,10 +29354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:43:04</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44083.52990740741</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30235,10 +29427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:43:01</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44083.52987268518</v>
       </c>
       <c r="I414" t="n">
         <v>2</v>
@@ -30314,10 +29504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:42:59</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44083.52984953704</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30382,10 +29570,8 @@
           <t>3472406528</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:42:26</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44083.52946759259</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30457,10 +29643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:40:27</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44083.52809027778</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30535,10 +29719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:39:47</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44083.52762731481</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30606,10 +29788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:39:27</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44083.52739583333</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30669,10 +29849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:39:20</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44083.52731481481</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -30745,10 +29923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:39:06</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44083.52715277778</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -30824,10 +30000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:38:58</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44083.52706018519</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -30891,10 +30065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:38:51</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44083.52697916667</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -30966,10 +30138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:37:57</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44083.52635416666</v>
       </c>
       <c r="I424" t="n">
         <v>1</v>
@@ -31038,10 +30208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:37:10</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44083.52581018519</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31117,10 +30285,8 @@
           <t>3472379993</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:36:56</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44083.52564814815</v>
       </c>
       <c r="I426" t="n">
         <v>1</v>
@@ -31198,10 +30364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:36:48</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44083.52555555556</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31273,10 +30437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:36:29</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44083.52533564815</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31348,10 +30510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:36:14</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44083.52516203704</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31415,10 +30575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:36:05</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44083.52505787037</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31494,10 +30652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:35:53</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44083.52491898148</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31561,10 +30717,8 @@
           <t>3472383090</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:35:51</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44083.52489583333</v>
       </c>
       <c r="I432" t="n">
         <v>1</v>
@@ -31632,10 +30786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:35:36</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44083.52472222222</v>
       </c>
       <c r="I433" t="n">
         <v>1</v>
@@ -31711,10 +30863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:35:16</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44083.52449074074</v>
       </c>
       <c r="I434" t="n">
         <v>1</v>
@@ -31778,10 +30928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:35:05</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44083.52436342592</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -31849,10 +30997,8 @@
           <t>3472382017</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:34:57</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44083.52427083333</v>
       </c>
       <c r="I436" t="n">
         <v>2</v>
@@ -31928,10 +31074,8 @@
           <t>3472324104</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:34:51</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44083.52420138889</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -31999,10 +31143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:34:29</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44083.52394675926</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32066,10 +31208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:34:19</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44083.52383101852</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32133,10 +31273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:34:15</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44083.52378472222</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32212,10 +31350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:34:03</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44083.52364583333</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32279,10 +31415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:33:53</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44083.52353009259</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32358,10 +31492,8 @@
           <t>3472380757</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:33:51</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44083.52350694445</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32429,10 +31561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:33:43</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44083.52341435185</v>
       </c>
       <c r="I444" t="n">
         <v>2</v>
@@ -32496,10 +31626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:33:40</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44083.52337962963</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32575,10 +31703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:33:37</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44083.52334490741</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32654,10 +31780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:33:18</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44083.523125</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32730,10 +31854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:33:17</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44083.52311342592</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -32797,10 +31919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:33:06</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44083.52298611111</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -32868,10 +31988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:32:55</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44083.5228587963</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -32943,10 +32061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:32:43</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44083.52271990741</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33006,10 +32122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:32:41</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44083.52269675926</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33085,10 +32199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:32:14</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44083.52238425926</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33152,10 +32264,8 @@
           <t>3472358982</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:31:55</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44083.52216435185</v>
       </c>
       <c r="I454" t="n">
         <v>5</v>
@@ -33231,10 +32341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:31:36</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44083.52194444444</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33302,10 +32410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:31:34</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44083.5219212963</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33373,10 +32479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:31:16</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44083.52171296296</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33448,10 +32552,8 @@
           <t>3472358078</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:31:08</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44083.52162037037</v>
       </c>
       <c r="I458" t="n">
         <v>2</v>
@@ -33515,10 +32617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:30:56</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44083.52148148148</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33590,10 +32690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:30:42</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44083.52131944444</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33665,10 +32763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:30:37</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44083.52126157407</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33740,10 +32836,8 @@
           <t>3472357047</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:30:15</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44083.52100694444</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -33807,10 +32901,8 @@
           <t>3472361746</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:30:09</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44083.5209375</v>
       </c>
       <c r="I463" t="n">
         <v>1</v>
@@ -33878,10 +32970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:30:04</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44083.52087962963</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -33949,10 +33039,8 @@
           <t>3472356757</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:30:02</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44083.52085648148</v>
       </c>
       <c r="I465" t="n">
         <v>8</v>
@@ -34025,10 +33113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:30:00</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44083.52083333334</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34096,10 +33182,8 @@
           <t>3472307662</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:29:53</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44083.52075231481</v>
       </c>
       <c r="I467" t="n">
         <v>1</v>
@@ -34167,10 +33251,8 @@
           <t>3472361319</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:29:48</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44083.52069444444</v>
       </c>
       <c r="I468" t="n">
         <v>1</v>
@@ -34234,10 +33316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:29:45</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44083.52065972222</v>
       </c>
       <c r="I469" t="n">
         <v>2</v>
@@ -34301,10 +33381,8 @@
           <t>3472355984</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:29:22</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44083.52039351852</v>
       </c>
       <c r="I470" t="n">
         <v>2</v>
@@ -34380,10 +33458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:29:11</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44083.5202662037</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34451,10 +33527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:28:59</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44083.52012731481</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34526,10 +33600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:28:44</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44083.5199537037</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34601,10 +33673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:28:41</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44083.51991898148</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34676,10 +33746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:28:22</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44083.51969907407</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -34751,10 +33819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:27:46</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44083.5192824074</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -34818,10 +33884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:27:29</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44083.51908564815</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -34897,10 +33961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:27:08</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44083.5188425926</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -34968,10 +34030,8 @@
           <t>3472342688</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:26:38</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44083.51849537037</v>
       </c>
       <c r="I479" t="n">
         <v>4</v>
@@ -35039,10 +34099,8 @@
           <t>3472346402</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:26:34</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44083.51844907407</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35110,10 +34168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:26:20</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44083.51828703703</v>
       </c>
       <c r="I481" t="n">
         <v>1</v>
@@ -35177,10 +34233,8 @@
           <t>3472347000</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:26:15</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44083.51822916666</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35252,10 +34306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:26:06</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44083.518125</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35331,10 +34383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:54</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44083.51798611111</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35398,10 +34448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:53</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44083.51797453704</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35477,10 +34525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:47</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44083.51790509259</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35548,10 +34594,8 @@
           <t>3472346402</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:44</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44083.51787037037</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
@@ -35627,10 +34671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:28</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44083.51768518519</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35703,10 +34745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:18</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44083.51756944445</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -35774,10 +34814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:15</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44083.51753472222</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -35853,10 +34891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:14</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44083.51752314815</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -35924,10 +34960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:13</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44083.51751157407</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -35991,10 +35025,8 @@
           <t>3472340934</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:10</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44083.51747685186</v>
       </c>
       <c r="I493" t="n">
         <v>1</v>
@@ -36054,10 +35086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:08</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44083.5174537037</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36133,10 +35163,8 @@
           <t>3472336470</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:05</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44083.51741898148</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36204,10 +35232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:03</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44083.51739583333</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36275,10 +35301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:24:52</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44083.51726851852</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36354,10 +35378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:24:50</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44083.51724537037</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36429,10 +35451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:24:37</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44083.51709490741</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36508,10 +35528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:24:32</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44083.51703703704</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36579,10 +35597,8 @@
           <t>3472336470</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:24:25</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44083.51695601852</v>
       </c>
       <c r="I501" t="n">
         <v>1</v>
@@ -36658,10 +35674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:24:17</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44083.51686342592</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -36734,10 +35748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:24:01</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44083.51667824074</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -36805,10 +35817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:23:38</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44083.51641203704</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -36880,10 +35890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:23:29</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44083.51630787037</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -36947,10 +35955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:23:28</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44083.51629629629</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37022,10 +36028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:23:21</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44083.51621527778</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37101,10 +36105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:23:18</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44083.51618055555</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37168,10 +36170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:23:12</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44083.51611111111</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37235,10 +36235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:23:02</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44083.51599537037</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37302,10 +36300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:22:52</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44083.51587962963</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37377,10 +36373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:22:50</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44083.51585648148</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37456,10 +36450,8 @@
           <t>3472336470</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:22:18</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44083.51548611111</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37527,10 +36519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:21:50</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44083.51516203704</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37594,10 +36584,8 @@
           <t>3472331855</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:21:49</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44083.51515046296</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -37673,10 +36661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:21:38</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44083.51502314815</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -37752,10 +36738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:21:38</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44083.51502314815</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -37819,10 +36803,8 @@
           <t>3472336470</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:21:35</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44083.51498842592</v>
       </c>
       <c r="I518" t="n">
         <v>4</v>
@@ -37898,10 +36880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:21:20</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44083.51481481481</v>
       </c>
       <c r="I519" t="n">
         <v>1</v>
@@ -37965,10 +36945,8 @@
           <t>3472324104</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:21:10</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44083.51469907408</v>
       </c>
       <c r="I520" t="n">
         <v>20</v>
@@ -38036,10 +37014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:21:04</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44083.51462962963</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38115,10 +37091,8 @@
           <t>3472310622</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:21:02</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44083.51460648148</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38186,10 +37160,8 @@
           <t>3472324104</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:20:45</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44083.51440972222</v>
       </c>
       <c r="I523" t="n">
         <v>7</v>
@@ -38265,10 +37237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:20:41</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44083.51436342593</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38328,10 +37298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:20:29</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44083.51422453704</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38399,10 +37367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:20:10</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44083.51400462963</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38466,10 +37432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:20:04</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44083.51393518518</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38541,10 +37505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:52</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44083.5137962963</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38620,10 +37582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:52</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44083.5137962963</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -38695,10 +37655,8 @@
           <t>3472324316</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:44</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44083.51370370371</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -38762,10 +37720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:42</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44083.51368055555</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -38829,10 +37785,8 @@
           <t>3472324104</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:42</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44083.51368055555</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -38908,10 +37862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:38</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44083.51363425926</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -38988,10 +37940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:38</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44083.51363425926</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39063,10 +38013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:34</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44083.51358796296</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39126,10 +38074,8 @@
           <t>3472324104</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:33</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44083.51357638889</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39205,10 +38151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:11</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44083.51332175926</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39284,10 +38228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:18:45</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44083.51302083334</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39359,10 +38301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:18:41</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44083.51297453704</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39430,10 +38370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:18:40</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44083.51296296297</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39498,10 +38436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:18:37</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44083.51292824074</v>
       </c>
       <c r="I541" t="n">
         <v>1</v>
@@ -39574,10 +38510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:18:24</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44083.51277777777</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39645,10 +38579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:18:23</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44083.5127662037</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -39716,10 +38648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:18:14</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44083.51266203704</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -39789,10 +38719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:18:05</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44083.51255787037</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -39860,10 +38788,8 @@
           <t>3472317651</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:18:05</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44083.51255787037</v>
       </c>
       <c r="I546" t="n">
         <v>27</v>
@@ -39927,10 +38853,8 @@
           <t>3472322256</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:17:58</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44083.51247685185</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -39994,10 +38918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:17:56</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44083.5124537037</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40069,10 +38991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:17:39</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44083.51225694444</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40148,10 +39068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:17:34</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44083.51219907407</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40215,10 +39133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:17:25</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44083.5120949074</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40290,10 +39206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:17:15</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44083.51197916667</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40357,10 +39271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:17:07</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44083.51188657407</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40436,10 +39348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:17:06</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44083.511875</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40515,10 +39425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:16:58</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44083.5117824074</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -40594,10 +39502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:16:56</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44083.51175925926</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -40669,10 +39575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:16:50</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44083.51168981481</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -40744,10 +39648,8 @@
           <t>3472311057</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:16:37</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44083.51153935185</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -40811,10 +39713,8 @@
           <t>3472311034</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:16:36</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44083.51152777778</v>
       </c>
       <c r="I559" t="n">
         <v>49</v>
@@ -40886,10 +39786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:16:26</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44083.51141203703</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -40957,10 +39855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:16:21</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44083.51135416667</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41024,10 +39920,8 @@
           <t>3472320392</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:16:21</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44083.51135416667</v>
       </c>
       <c r="I562" t="n">
         <v>20</v>
@@ -41099,10 +39993,8 @@
           <t>3472315676</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:16:20</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44083.5113425926</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41178,10 +40070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:16:20</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44083.5113425926</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41253,10 +40143,8 @@
           <t>3472310622</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:16:13</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44083.51126157407</v>
       </c>
       <c r="I565" t="n">
         <v>15</v>
@@ -41332,10 +40220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:15:57</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44083.51107638889</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41403,10 +40289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:15:49</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44083.5109837963</v>
       </c>
       <c r="I567" t="n">
         <v>27</v>
@@ -41474,10 +40358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:15:43</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44083.51091435185</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41553,10 +40435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:15:32</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44083.51078703703</v>
       </c>
       <c r="I569" t="n">
         <v>46</v>
@@ -41624,10 +40504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:15:32</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44083.51078703703</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -41703,10 +40581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:15:29</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44083.51075231482</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -41774,10 +40650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:15:18</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44083.510625</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -41841,10 +40715,8 @@
           <t>3472309193</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:15:18</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44083.510625</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -41916,10 +40788,8 @@
           <t>3472299410</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:15:10</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44083.51053240741</v>
       </c>
       <c r="I574" t="n">
         <v>9</v>
@@ -41987,10 +40857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:15:09</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44083.51052083333</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42054,10 +40922,8 @@
           <t>3472304348</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:15:09</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44083.51052083333</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42121,10 +40987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:15:05</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44083.51047453703</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42196,10 +41060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:15:04</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44083.51046296296</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42275,10 +41137,8 @@
           <t>3472299283</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:15:02</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44083.51043981482</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42354,10 +41214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:15:01</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44083.51042824074</v>
       </c>
       <c r="I580" t="n">
         <v>1</v>
@@ -42421,10 +41279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:14:59</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44083.51040509259</v>
       </c>
       <c r="I581" t="n">
         <v>2</v>
@@ -42492,10 +41348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:14:52</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44083.51032407407</v>
       </c>
       <c r="I582" t="n">
         <v>2</v>
@@ -42571,10 +41425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:14:49</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44083.51028935185</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -42645,10 +41497,8 @@
           <t>3472303029</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:14:33</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44083.51010416666</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -42716,10 +41566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:14:27</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44083.51003472223</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -42791,10 +41639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:14:26</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44083.51002314815</v>
       </c>
       <c r="I586" t="n">
         <v>1</v>
@@ -42870,10 +41716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:14:25</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44083.51001157407</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -42938,10 +41782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:14:21</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44083.50996527778</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43017,10 +41859,8 @@
           <t>3472289876</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:14:10</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44083.50983796296</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43088,10 +41928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:14:02</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44083.50974537037</v>
       </c>
       <c r="I590" t="n">
         <v>1</v>
@@ -43159,10 +41997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:14:01</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44083.50973379629</v>
       </c>
       <c r="I591" t="n">
         <v>34</v>
@@ -43238,10 +42074,8 @@
           <t>3472303066</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:14:01</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44083.50973379629</v>
       </c>
       <c r="I592" t="n">
         <v>1</v>
@@ -43313,10 +42147,8 @@
           <t>3472303029</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:14:00</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44083.50972222222</v>
       </c>
       <c r="I593" t="n">
         <v>13</v>
@@ -43384,10 +42216,8 @@
           <t>3472307662</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:13:57</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44083.5096875</v>
       </c>
       <c r="I594" t="n">
         <v>15</v>
@@ -43463,10 +42293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:13:27</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44083.50934027778</v>
       </c>
       <c r="I595" t="n">
         <v>2</v>
@@ -43534,10 +42362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:13:16</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44083.50921296296</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -43597,10 +42423,8 @@
           <t>3472297214</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:13:14</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44083.50918981482</v>
       </c>
       <c r="I597" t="n">
         <v>15</v>
@@ -43668,10 +42492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:12:51</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44083.50892361111</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -43731,10 +42553,8 @@
           <t>3472306405</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:12:49</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44083.50890046296</v>
       </c>
       <c r="I599" t="n">
         <v>8</v>
@@ -43810,10 +42630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:12:23</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44083.50859953704</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -43873,10 +42691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:12:04</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44083.50837962963</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -43952,10 +42768,8 @@
           <t>3472305586</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:12:04</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44083.50837962963</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44023,10 +42837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:12:01</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44083.50834490741</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44102,10 +42914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:11:57</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44083.50829861111</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44169,10 +42979,8 @@
           <t>3472300587</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:11:50</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44083.50821759259</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44236,10 +43044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:11:48</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44083.50819444445</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44307,10 +43113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:11:48</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44083.50819444445</v>
       </c>
       <c r="I607" t="n">
         <v>1</v>
@@ -44378,10 +43182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:11:47</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44083.50818287037</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -44445,10 +43247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:11:46</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44083.50817129629</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -44524,10 +43324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:11:32</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44083.50800925926</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -44603,10 +43401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:11:29</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44083.50797453704</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -44674,10 +43470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:11:24</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44083.50791666667</v>
       </c>
       <c r="I612" t="n">
         <v>97</v>
@@ -44745,10 +43539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:11:23</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44083.50790509259</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
@@ -44812,10 +43604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:11:18</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44083.50784722222</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -44875,10 +43665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:11:13</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44083.50778935185</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -44942,10 +43730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:11:11</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44083.5077662037</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45009,10 +43795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:11:11</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44083.5077662037</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -45077,10 +43861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:11:10</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44083.50775462963</v>
       </c>
       <c r="I618" t="n">
         <v>1</v>
@@ -45148,10 +43930,8 @@
           <t>3472289876</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:11:10</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44083.50775462963</v>
       </c>
       <c r="I619" t="n">
         <v>3</v>
@@ -45220,10 +44000,8 @@
           <t>3472289796</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:11:06</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44083.50770833333</v>
       </c>
       <c r="I620" t="n">
         <v>86</v>
@@ -45291,10 +44069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:11:04</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44083.50768518518</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -45370,10 +44146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:11:03</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44083.50767361111</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -45445,10 +44219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:10:54</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44083.50756944445</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -45520,10 +44292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:10:43</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44083.50744212963</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -45599,10 +44369,8 @@
           <t>3472284291</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:10:34</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44083.50733796296</v>
       </c>
       <c r="I625" t="n">
         <v>1</v>
@@ -45678,10 +44446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:10:30</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44083.50729166667</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -45753,10 +44519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:10:29</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44083.50728009259</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
@@ -45828,10 +44592,8 @@
           <t>3472289018</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:10:25</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44083.5072337963</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -45907,10 +44669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:10:24</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44083.50722222222</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -45979,10 +44739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:10:23</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44083.50721064815</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -46046,10 +44804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:10:17</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44083.50714120371</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46125,10 +44881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:10:10</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44083.50706018518</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
@@ -46192,10 +44946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:10:06</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44083.50701388889</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -46259,10 +45011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:10:06</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44083.50701388889</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -46330,10 +45080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:10:05</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44083.50700231481</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -46397,10 +45145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:10:05</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44083.50700231481</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -46476,10 +45222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:10:04</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44083.50699074074</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -46547,10 +45291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:09:34</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44083.50664351852</v>
       </c>
       <c r="I638" t="n">
         <v>1</v>
@@ -46618,10 +45360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:09:27</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44083.5065625</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -46689,10 +45429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:09:26</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44083.50655092593</v>
       </c>
       <c r="I640" t="n">
         <v>2</v>
@@ -46764,10 +45502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:09:24</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44083.50652777778</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
@@ -46843,10 +45579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:09:24</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44083.50652777778</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -46910,10 +45644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:09:20</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44083.50648148148</v>
       </c>
       <c r="I643" t="n">
         <v>96</v>
@@ -46981,10 +45713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:09:19</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44083.50646990741</v>
       </c>
       <c r="I644" t="n">
         <v>76</v>
@@ -47056,10 +45786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:09:18</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44083.50645833334</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
@@ -47127,10 +45855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:09:10</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44083.50636574074</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
@@ -47206,10 +45932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:09:08</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44083.50634259259</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -47273,10 +45997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:09:02</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44083.50627314814</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
@@ -47340,10 +46062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:08:55</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44083.50619212963</v>
       </c>
       <c r="I649" t="n">
         <v>68</v>
@@ -47407,10 +46127,8 @@
           <t>3472291925</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:08:48</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44083.50611111111</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -47478,10 +46196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:08:42</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44083.50604166667</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
@@ -47553,10 +46269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:08:36</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44083.50597222222</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
@@ -47624,10 +46338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:08:33</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44083.5059375</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
@@ -47699,10 +46411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:08:28</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44083.50587962963</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
@@ -47770,10 +46480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:08:23</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44083.50582175926</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
@@ -47837,10 +46545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:08:17</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44083.50575231481</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
@@ -47916,10 +46622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:08:10</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44083.5056712963</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
@@ -47991,10 +46695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:08:09</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44083.50565972222</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
@@ -48058,10 +46760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:08:02</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44083.50557870371</v>
       </c>
       <c r="I659" t="n">
         <v>43</v>
@@ -48125,10 +46825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:07:53</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44083.50547453704</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
@@ -48200,10 +46898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:07:50</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44083.50543981481</v>
       </c>
       <c r="I661" t="n">
         <v>1</v>
@@ -48271,10 +46967,8 @@
           <t>3472281258</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:07:50</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44083.50543981481</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
@@ -48347,10 +47041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:07:44</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44083.50537037037</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
@@ -48418,10 +47110,8 @@
           <t>3472281126</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:07:44</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44083.50537037037</v>
       </c>
       <c r="I664" t="n">
         <v>5</v>
@@ -48485,10 +47175,8 @@
           <t>3472290518</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:07:35</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44083.50526620371</v>
       </c>
       <c r="I665" t="n">
         <v>8</v>
@@ -48560,10 +47248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:07:34</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44083.50525462963</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
@@ -48631,10 +47317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:07:33</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44083.50524305556</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
@@ -48698,10 +47382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:07:19</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44083.50508101852</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
@@ -48769,10 +47451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:07:19</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44083.50508101852</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -48840,10 +47520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:07:15</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44083.50503472222</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
@@ -48915,10 +47593,8 @@
           <t>3472274960</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:07:15</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44083.50503472222</v>
       </c>
       <c r="I671" t="n">
         <v>1</v>
@@ -48994,10 +47670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:07:13</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44083.50501157407</v>
       </c>
       <c r="I672" t="n">
         <v>0</v>
@@ -49069,10 +47743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:07:11</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44083.50498842593</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
@@ -49144,10 +47816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:07:09</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44083.50496527777</v>
       </c>
       <c r="I674" t="n">
         <v>282</v>
@@ -49211,10 +47881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:07:08</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44083.5049537037</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
@@ -49282,10 +47950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:07:00</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44083.50486111111</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
@@ -49362,10 +48028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:58</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44083.50483796297</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
@@ -49429,10 +48093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:57</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44083.50482638889</v>
       </c>
       <c r="I678" t="n">
         <v>0</v>
@@ -49508,10 +48170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:55</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44083.50480324074</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
@@ -49587,10 +48247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:50</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44083.50474537037</v>
       </c>
       <c r="I680" t="n">
         <v>2</v>
@@ -49666,10 +48324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:50</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44083.50474537037</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
@@ -49737,10 +48393,8 @@
           <t>3472279711</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:50</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44083.50474537037</v>
       </c>
       <c r="I682" t="n">
         <v>7</v>
@@ -49812,10 +48466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:49</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44083.5047337963</v>
       </c>
       <c r="I683" t="n">
         <v>0</v>
@@ -49879,10 +48531,8 @@
           <t>3472274960</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:47</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44083.50471064815</v>
       </c>
       <c r="I684" t="n">
         <v>6</v>
@@ -49955,10 +48605,8 @@
           <t>3472274924</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:46</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44083.50469907407</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
@@ -50026,10 +48674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:46</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44083.50469907407</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
@@ -50105,10 +48751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:46</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44083.50469907407</v>
       </c>
       <c r="I687" t="n">
         <v>0</v>
@@ -50180,10 +48824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:45</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44083.5046875</v>
       </c>
       <c r="I688" t="n">
         <v>1</v>
@@ -50251,10 +48893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:44</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44083.50467592593</v>
       </c>
       <c r="I689" t="n">
         <v>1</v>
@@ -50326,10 +48966,8 @@
           <t>3472269903</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:37</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44083.5045949074</v>
       </c>
       <c r="I690" t="n">
         <v>2</v>
@@ -50390,10 +49028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:33</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44083.50454861111</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
@@ -50469,10 +49105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:32</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44083.50453703704</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
@@ -50544,10 +49178,8 @@
           <t>3472274649</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:30</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44083.50451388889</v>
       </c>
       <c r="I693" t="n">
         <v>0</v>
@@ -50611,10 +49243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:29</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44083.50450231481</v>
       </c>
       <c r="I694" t="n">
         <v>2</v>
@@ -50690,10 +49320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:26</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44083.50446759259</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
@@ -50769,10 +49397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:24</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44083.50444444444</v>
       </c>
       <c r="I696" t="n">
         <v>0</v>
@@ -50836,10 +49462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:23</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44083.50443287037</v>
       </c>
       <c r="I697" t="n">
         <v>504</v>
@@ -50915,10 +49539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:14</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44083.5043287037</v>
       </c>
       <c r="I698" t="n">
         <v>0</v>
@@ -50990,10 +49612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:11</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44083.50429398148</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
@@ -51061,10 +49681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:11</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44083.50429398148</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
@@ -51132,10 +49750,8 @@
           <t>3472278964</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:09</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44083.50427083333</v>
       </c>
       <c r="I701" t="n">
         <v>3</v>
@@ -51199,10 +49815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:07</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44083.50424768519</v>
       </c>
       <c r="I702" t="n">
         <v>0</v>
@@ -51274,10 +49888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:06</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44083.50423611111</v>
       </c>
       <c r="I703" t="n">
         <v>0</v>
@@ -51345,10 +49957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:04</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44083.50421296297</v>
       </c>
       <c r="I704" t="n">
         <v>158</v>
@@ -51416,10 +50026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:02</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44083.50418981481</v>
       </c>
       <c r="I705" t="n">
         <v>0</v>
@@ -51495,10 +50103,8 @@
           <t>3472274123</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:06:02</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44083.50418981481</v>
       </c>
       <c r="I706" t="n">
         <v>1</v>
@@ -51566,10 +50172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:59</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44083.5041550926</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
@@ -51633,10 +50237,8 @@
           <t>3472274054</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:59</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44083.5041550926</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
@@ -51704,10 +50306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:57</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44083.50413194444</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
@@ -51775,10 +50375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:55</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44083.5041087963</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
@@ -51842,10 +50440,8 @@
           <t>3472278680</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:54</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44083.50409722222</v>
       </c>
       <c r="I711" t="n">
         <v>46</v>
@@ -51905,10 +50501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:52</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44083.50407407407</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
@@ -51984,10 +50578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:49</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44083.50403935185</v>
       </c>
       <c r="I713" t="n">
         <v>0</v>
@@ -52059,10 +50651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:48</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44083.50402777778</v>
       </c>
       <c r="I714" t="n">
         <v>0</v>
@@ -52126,10 +50716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:48</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44083.50402777778</v>
       </c>
       <c r="I715" t="n">
         <v>14</v>
@@ -52205,10 +50793,8 @@
           <t>3472278533</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:46</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44083.50400462963</v>
       </c>
       <c r="I716" t="n">
         <v>2</v>
@@ -52268,10 +50854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:45</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44083.50399305556</v>
       </c>
       <c r="I717" t="n">
         <v>17</v>
@@ -52347,10 +50931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:41</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44083.50394675926</v>
       </c>
       <c r="I718" t="n">
         <v>178</v>
@@ -52418,10 +51000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:41</t>
-        </is>
+      <c r="H719" s="1" t="n">
+        <v>44083.50394675926</v>
       </c>
       <c r="I719" t="n">
         <v>3</v>
@@ -52485,10 +51065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:39</t>
-        </is>
+      <c r="H720" s="1" t="n">
+        <v>44083.50392361111</v>
       </c>
       <c r="I720" t="n">
         <v>0</v>
@@ -52552,10 +51130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:39</t>
-        </is>
+      <c r="H721" s="1" t="n">
+        <v>44083.50392361111</v>
       </c>
       <c r="I721" t="n">
         <v>1</v>
@@ -52619,10 +51195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:37</t>
-        </is>
+      <c r="H722" s="1" t="n">
+        <v>44083.50390046297</v>
       </c>
       <c r="I722" t="n">
         <v>1</v>
@@ -52698,10 +51272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:36</t>
-        </is>
+      <c r="H723" s="1" t="n">
+        <v>44083.50388888889</v>
       </c>
       <c r="I723" t="n">
         <v>0</v>
@@ -52777,10 +51349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:34</t>
-        </is>
+      <c r="H724" s="1" t="n">
+        <v>44083.50386574074</v>
       </c>
       <c r="I724" t="n">
         <v>0</v>
@@ -52856,10 +51426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:34</t>
-        </is>
+      <c r="H725" s="1" t="n">
+        <v>44083.50386574074</v>
       </c>
       <c r="I725" t="n">
         <v>1</v>
@@ -52927,10 +51495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:34</t>
-        </is>
+      <c r="H726" s="1" t="n">
+        <v>44083.50386574074</v>
       </c>
       <c r="I726" t="n">
         <v>1</v>
@@ -53006,10 +51572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:33</t>
-        </is>
+      <c r="H727" s="1" t="n">
+        <v>44083.50385416667</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
@@ -53073,10 +51637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:31</t>
-        </is>
+      <c r="H728" s="1" t="n">
+        <v>44083.50383101852</v>
       </c>
       <c r="I728" t="n">
         <v>1</v>
@@ -53144,10 +51706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:29</t>
-        </is>
+      <c r="H729" s="1" t="n">
+        <v>44083.50380787037</v>
       </c>
       <c r="I729" t="n">
         <v>0</v>
@@ -53215,10 +51775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:25</t>
-        </is>
+      <c r="H730" s="1" t="n">
+        <v>44083.50376157407</v>
       </c>
       <c r="I730" t="n">
         <v>0</v>
@@ -53290,10 +51848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:24</t>
-        </is>
+      <c r="H731" s="1" t="n">
+        <v>44083.50375</v>
       </c>
       <c r="I731" t="n">
         <v>0</v>
@@ -53357,10 +51913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:23</t>
-        </is>
+      <c r="H732" s="1" t="n">
+        <v>44083.50373842593</v>
       </c>
       <c r="I732" t="n">
         <v>0</v>
@@ -53424,10 +51978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:19</t>
-        </is>
+      <c r="H733" s="1" t="n">
+        <v>44083.50369212963</v>
       </c>
       <c r="I733" t="n">
         <v>0</v>
@@ -53495,10 +52047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:18</t>
-        </is>
+      <c r="H734" s="1" t="n">
+        <v>44083.50368055556</v>
       </c>
       <c r="I734" t="n">
         <v>0</v>
@@ -53566,10 +52116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:17</t>
-        </is>
+      <c r="H735" s="1" t="n">
+        <v>44083.50366898148</v>
       </c>
       <c r="I735" t="n">
         <v>0</v>
@@ -53633,10 +52181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:16</t>
-        </is>
+      <c r="H736" s="1" t="n">
+        <v>44083.5036574074</v>
       </c>
       <c r="I736" t="n">
         <v>548</v>
@@ -53704,10 +52250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:15</t>
-        </is>
+      <c r="H737" s="1" t="n">
+        <v>44083.50364583333</v>
       </c>
       <c r="I737" t="n">
         <v>0</v>
@@ -53779,10 +52323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:15</t>
-        </is>
+      <c r="H738" s="1" t="n">
+        <v>44083.50364583333</v>
       </c>
       <c r="I738" t="n">
         <v>1</v>
@@ -53858,10 +52400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:14</t>
-        </is>
+      <c r="H739" s="1" t="n">
+        <v>44083.50363425926</v>
       </c>
       <c r="I739" t="n">
         <v>1</v>
@@ -53937,10 +52477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:14</t>
-        </is>
+      <c r="H740" s="1" t="n">
+        <v>44083.50363425926</v>
       </c>
       <c r="I740" t="n">
         <v>1</v>
@@ -54012,10 +52550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:13</t>
-        </is>
+      <c r="H741" s="1" t="n">
+        <v>44083.50362268519</v>
       </c>
       <c r="I741" t="n">
         <v>0</v>
@@ -54079,10 +52615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:13</t>
-        </is>
+      <c r="H742" s="1" t="n">
+        <v>44083.50362268519</v>
       </c>
       <c r="I742" t="n">
         <v>0</v>
@@ -54158,10 +52692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:13</t>
-        </is>
+      <c r="H743" s="1" t="n">
+        <v>44083.50362268519</v>
       </c>
       <c r="I743" t="n">
         <v>0</v>
@@ -54237,10 +52769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:09</t>
-        </is>
+      <c r="H744" s="1" t="n">
+        <v>44083.50357638889</v>
       </c>
       <c r="I744" t="n">
         <v>0</v>
@@ -54316,10 +52846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:08</t>
-        </is>
+      <c r="H745" s="1" t="n">
+        <v>44083.50356481481</v>
       </c>
       <c r="I745" t="n">
         <v>0</v>
@@ -54395,10 +52923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:08</t>
-        </is>
+      <c r="H746" s="1" t="n">
+        <v>44083.50356481481</v>
       </c>
       <c r="I746" t="n">
         <v>1</v>
@@ -54470,10 +52996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:03</t>
-        </is>
+      <c r="H747" s="1" t="n">
+        <v>44083.50350694444</v>
       </c>
       <c r="I747" t="n">
         <v>0</v>
@@ -54545,10 +53069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:05:02</t>
-        </is>
+      <c r="H748" s="1" t="n">
+        <v>44083.50349537037</v>
       </c>
       <c r="I748" t="n">
         <v>1</v>
@@ -54624,10 +53146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:04:58</t>
-        </is>
+      <c r="H749" s="1" t="n">
+        <v>44083.50344907407</v>
       </c>
       <c r="I749" t="n">
         <v>0</v>
